--- a/포트폴리오 구성 사례(2025).xlsx
+++ b/포트폴리오 구성 사례(2025).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kornu-my.sharepoint.com/personal/11378_office_kornu_ac_kr/Documents/금융연수원/자산관리/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{1B35007C-570C-465E-885F-56BF93A21D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFA9572E-6900-4FF7-BE14-9FA3CFBF5286}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="8_{1B35007C-570C-465E-885F-56BF93A21D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A94FBF86-98BB-4879-8EB8-D0F1AF71F122}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14175" yWindow="0" windowWidth="14625" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPM_Duration" sheetId="5" r:id="rId1"/>
@@ -590,8 +590,8 @@
     <numFmt numFmtId="181" formatCode="0.0000"/>
     <numFmt numFmtId="182" formatCode="0.0000%"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.0000_ "/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1642,55 +1642,22 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="185" fontId="24" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="185" fontId="25" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="24" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="25" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="24" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="185" fontId="24" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="24" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="181" fontId="24" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1702,7 +1669,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1720,7 +1687,7 @@
     <xf numFmtId="181" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="185" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1745,6 +1712,39 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -3719,10 +3719,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -4007,7 +4003,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="118" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="40"/>
@@ -4097,7 +4093,7 @@
       <c r="C14" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="111" t="s">
         <v>111</v>
       </c>
       <c r="E14" s="51" t="s">
@@ -4410,14 +4406,14 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="B39" s="123">
+      <c r="B39" s="112">
         <v>1</v>
       </c>
       <c r="C39" s="54">
         <f>10000*$C$35/4</f>
         <v>100</v>
       </c>
-      <c r="D39" s="124">
+      <c r="D39" s="113">
         <f>+C39/(1+$C$36/4)^B39</f>
         <v>98.76543209876543</v>
       </c>
@@ -4431,14 +4427,14 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="B40" s="123">
+      <c r="B40" s="112">
         <v>2</v>
       </c>
       <c r="C40" s="54">
-        <f t="shared" ref="C40:C49" si="5">10000*$C$35/4</f>
+        <f t="shared" ref="C40:C48" si="5">10000*$C$35/4</f>
         <v>100</v>
       </c>
-      <c r="D40" s="124">
+      <c r="D40" s="113">
         <f t="shared" ref="D40:D50" si="6">+C40/(1+$C$36/4)^B40</f>
         <v>97.546105776558448</v>
       </c>
@@ -4452,14 +4448,14 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="B41" s="123">
+      <c r="B41" s="112">
         <v>3</v>
       </c>
       <c r="C41" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="D41" s="124">
+      <c r="D41" s="113">
         <f t="shared" si="6"/>
         <v>96.341832865736762</v>
       </c>
@@ -4473,14 +4469,14 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="B42" s="123">
+      <c r="B42" s="112">
         <v>4</v>
       </c>
       <c r="C42" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="D42" s="124">
+      <c r="D42" s="113">
         <f t="shared" si="6"/>
         <v>95.15242752171531</v>
       </c>
@@ -4494,14 +4490,14 @@
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="B43" s="123">
+      <c r="B43" s="112">
         <v>5</v>
       </c>
       <c r="C43" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="D43" s="124">
+      <c r="D43" s="113">
         <f t="shared" si="6"/>
         <v>93.977706194286739</v>
       </c>
@@ -4515,14 +4511,14 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="B44" s="123">
+      <c r="B44" s="112">
         <v>6</v>
       </c>
       <c r="C44" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="D44" s="124">
+      <c r="D44" s="113">
         <f t="shared" si="6"/>
         <v>92.817487599295532</v>
       </c>
@@ -4536,14 +4532,14 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="B45" s="123">
+      <c r="B45" s="112">
         <v>7</v>
       </c>
       <c r="C45" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="D45" s="124">
+      <c r="D45" s="113">
         <f t="shared" si="6"/>
         <v>91.671592690662266</v>
       </c>
@@ -4557,14 +4553,14 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="B46" s="123">
+      <c r="B46" s="112">
         <v>8</v>
       </c>
       <c r="C46" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="D46" s="124">
+      <c r="D46" s="113">
         <f t="shared" si="6"/>
         <v>90.539844632752846</v>
       </c>
@@ -4578,14 +4574,14 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="B47" s="123">
+      <c r="B47" s="112">
         <v>9</v>
       </c>
       <c r="C47" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="D47" s="124">
+      <c r="D47" s="113">
         <f t="shared" si="6"/>
         <v>89.422068773089237</v>
       </c>
@@ -4599,14 +4595,14 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="B48" s="123">
+      <c r="B48" s="112">
         <v>10</v>
       </c>
       <c r="C48" s="54">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="D48" s="124">
+      <c r="D48" s="113">
         <f t="shared" si="6"/>
         <v>88.318092615396765</v>
       </c>
@@ -4620,14 +4616,14 @@
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="123">
+      <c r="B49" s="112">
         <v>11</v>
       </c>
       <c r="C49" s="54">
         <f>10000*$C$35/4</f>
         <v>100</v>
       </c>
-      <c r="D49" s="124">
+      <c r="D49" s="113">
         <f t="shared" si="6"/>
         <v>87.227745792984479</v>
       </c>
@@ -4641,14 +4637,14 @@
       </c>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="126">
+      <c r="B50" s="115">
         <v>12</v>
       </c>
       <c r="C50" s="61">
         <f>10000*$C$35/4+10000</f>
         <v>10100</v>
       </c>
-      <c r="D50" s="127">
+      <c r="D50" s="116">
         <f t="shared" si="6"/>
         <v>8701.2368642878337</v>
       </c>
@@ -4666,7 +4662,7 @@
         <v>51</v>
       </c>
       <c r="C51" s="58"/>
-      <c r="D51" s="125">
+      <c r="D51" s="114">
         <f>SUM(D39:D50)</f>
         <v>9723.0172008490772</v>
       </c>
@@ -4680,7 +4676,7 @@
       <c r="E52" t="s">
         <v>113</v>
       </c>
-      <c r="F52" s="128">
+      <c r="F52" s="117">
         <f>F51/4</f>
         <v>2.839104134399915</v>
       </c>
@@ -4754,19 +4750,19 @@
       <c r="E3" s="10">
         <v>0</v>
       </c>
-      <c r="F3" s="134">
+      <c r="F3" s="123">
         <f>D3*B3</f>
         <v>0.06</v>
       </c>
-      <c r="G3" s="135">
+      <c r="G3" s="124">
         <f>+F3^2</f>
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="H3" s="136">
+      <c r="H3" s="125">
         <f>2*F3*F4*E3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="137">
+      <c r="I3" s="126">
         <f>G3+G4+H3</f>
         <v>4.3839999999999999E-3</v>
       </c>
@@ -4786,53 +4782,53 @@
         <v>0.04</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="134">
+      <c r="F4" s="123">
         <f>D4*B4</f>
         <v>2.7999999999999997E-2</v>
       </c>
-      <c r="G4" s="135">
+      <c r="G4" s="124">
         <f>+F4^2</f>
         <v>7.8399999999999987E-4</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="139">
+      <c r="B5" s="123"/>
+      <c r="C5" s="128">
         <f>C3*B3+C4*B4</f>
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="140">
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="129">
         <f>SUM(F3:F4)</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
+      <c r="G5" s="124"/>
+      <c r="H5" s="124"/>
+      <c r="I5" s="124"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142">
+      <c r="B6" s="123"/>
+      <c r="C6" s="130"/>
+      <c r="D6" s="131">
         <f>SQRT(I3)</f>
         <v>6.6211781428987398E-2</v>
       </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135" t="s">
+      <c r="E6" s="124"/>
+      <c r="F6" s="124" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4846,7 +4842,7 @@
   <dimension ref="B2:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4910,7 +4906,7 @@
         <v>0.09</v>
       </c>
       <c r="E3" s="29">
-        <v>0.18</v>
+        <v>0.2137</v>
       </c>
       <c r="F3" s="30">
         <f>D3*C3</f>
@@ -4918,19 +4914,19 @@
       </c>
       <c r="G3" s="30">
         <f>+E3*C3</f>
-        <v>3.5999999999999997E-2</v>
+        <v>4.274E-2</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="J3" s="143">
+      <c r="J3" s="132">
         <v>1</v>
       </c>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
     </row>
     <row r="4" spans="2:14" ht="17.25">
       <c r="B4" s="27" t="s">
@@ -4940,32 +4936,32 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="29">
-        <v>0.08</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E4" s="29">
-        <v>0.16</v>
+        <v>0.21790000000000001</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:F7" si="0">D4*C4</f>
-        <v>1.6E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="G4" s="30">
         <f t="shared" ref="G4:G7" si="1">+E4*C4</f>
-        <v>3.2000000000000001E-2</v>
+        <v>4.3580000000000008E-2</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="143">
-        <v>0.25</v>
-      </c>
-      <c r="K4" s="143">
+      <c r="J4" s="132">
+        <v>0.3</v>
+      </c>
+      <c r="K4" s="132">
         <v>1</v>
       </c>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
     </row>
     <row r="5" spans="2:14" ht="17.25">
       <c r="B5" s="27" t="s">
@@ -4978,7 +4974,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E5" s="29">
-        <v>0.17</v>
+        <v>0.2341</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" si="0"/>
@@ -4986,23 +4982,23 @@
       </c>
       <c r="G5" s="30">
         <f t="shared" si="1"/>
-        <v>3.4000000000000002E-2</v>
+        <v>4.6820000000000001E-2</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="143">
-        <v>0.4</v>
-      </c>
-      <c r="K5" s="143">
-        <v>0.7</v>
-      </c>
-      <c r="L5" s="143">
+      <c r="J5" s="132">
+        <v>0.41697899999999999</v>
+      </c>
+      <c r="K5" s="132">
+        <v>0.64093800000000001</v>
+      </c>
+      <c r="L5" s="132">
         <v>1</v>
       </c>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
     </row>
     <row r="6" spans="2:14" ht="17.45" customHeight="1">
       <c r="B6" s="27" t="s">
@@ -5015,7 +5011,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" s="29">
-        <v>0.15</v>
+        <v>0.2581</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" si="0"/>
@@ -5023,25 +5019,25 @@
       </c>
       <c r="G6" s="30">
         <f t="shared" si="1"/>
-        <v>0.03</v>
+        <v>5.1619999999999999E-2</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="143">
-        <v>0.7</v>
-      </c>
-      <c r="K6" s="143">
-        <v>0.3</v>
-      </c>
-      <c r="L6" s="143">
-        <v>0.4</v>
-      </c>
-      <c r="M6" s="143">
+      <c r="J6" s="132">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="K6" s="132">
+        <v>0.26344400000000001</v>
+      </c>
+      <c r="L6" s="132">
+        <v>0.42276399999999997</v>
+      </c>
+      <c r="M6" s="132">
         <v>1</v>
       </c>
-      <c r="N6" s="143"/>
+      <c r="N6" s="132"/>
     </row>
     <row r="7" spans="2:14" ht="17.45" customHeight="1">
       <c r="B7" s="27" t="s">
@@ -5051,36 +5047,36 @@
         <v>0.2</v>
       </c>
       <c r="D7" s="29">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="E7" s="29">
-        <v>0.2</v>
+        <v>0.22939999999999999</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" si="0"/>
-        <v>2.0000000000000004E-2</v>
+        <v>2.2000000000000002E-2</v>
       </c>
       <c r="G7" s="30">
         <f t="shared" si="1"/>
-        <v>4.0000000000000008E-2</v>
+        <v>4.5880000000000004E-2</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="J7" s="143">
-        <v>0.6</v>
-      </c>
-      <c r="K7" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="143">
-        <v>0.6</v>
-      </c>
-      <c r="M7" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="143">
+      <c r="J7" s="132">
+        <v>0.49917</v>
+      </c>
+      <c r="K7" s="132">
+        <v>0.35153800000000002</v>
+      </c>
+      <c r="L7" s="132">
+        <v>0.45461699999999999</v>
+      </c>
+      <c r="M7" s="132">
+        <v>0.433811</v>
+      </c>
+      <c r="N7" s="132">
         <v>1</v>
       </c>
     </row>
@@ -5096,11 +5092,11 @@
       <c r="E8" s="32"/>
       <c r="F8" s="39">
         <f>SUM(F3:F7)</f>
-        <v>8.5000000000000006E-2</v>
+        <v>8.8600000000000012E-2</v>
       </c>
       <c r="G8" s="39">
         <f>SQRT(G3^2+G4^2+G5^2+G6^2+G7^2+2*G3*G4*J4+2*G3*G5*J5+2*G3*G6*J6+2*G4*G5*K5+2*G4*G6*K6+2*G5*G6*L6+2*G7*G3*J7+2*G7*G4*K7+2*G7*G5*L7+2*G7*G6*M7)</f>
-        <v>0.13341064425299806</v>
+        <v>0.1720971291147996</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -5154,17 +5150,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="137" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="115"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
     </row>
     <row r="3" spans="2:9" ht="21.75">
-      <c r="B3" s="112"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5175,7 +5171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="65.25">
+    <row r="4" spans="2:9" ht="43.5">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -5185,7 +5181,7 @@
       <c r="D4" s="3">
         <v>0.03</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="119" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5204,10 +5200,10 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="43.5" customHeight="1">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="116"/>
+      <c r="C7" s="140"/>
       <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
@@ -5227,7 +5223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="43.5">
+    <row r="8" spans="2:9" ht="21.75">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -6027,20 +6023,20 @@
       <c r="B3" s="91"/>
     </row>
     <row r="4" spans="2:6" ht="17.25" thickTop="1">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="119" t="s">
+      <c r="D4" s="144"/>
+      <c r="E4" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="121"/>
+      <c r="F4" s="145"/>
     </row>
     <row r="5" spans="2:6" ht="20.25" customHeight="1">
-      <c r="B5" s="118"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="92" t="s">
         <v>7</v>
       </c>
@@ -6128,12 +6124,12 @@
     </row>
     <row r="10" spans="2:6" ht="17.25" thickTop="1"/>
     <row r="11" spans="2:6" ht="21.75" customHeight="1">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="120" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="20.25">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="121" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="99">
@@ -6142,7 +6138,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="20.25">
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="121" t="s">
         <v>92</v>
       </c>
       <c r="E13" s="99">
@@ -6151,7 +6147,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="20.25">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="121" t="s">
         <v>93</v>
       </c>
       <c r="E14" s="99">
@@ -6160,7 +6156,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="20.25">
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="121" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="99">
@@ -6177,13 +6173,13 @@
       <c r="E17" s="100"/>
     </row>
     <row r="18" spans="2:5" ht="20.25">
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="122" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="100"/>
     </row>
     <row r="19" spans="2:5" ht="20.25">
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="121" t="s">
         <v>96</v>
       </c>
       <c r="E19" s="99">
@@ -6192,7 +6188,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="20.25">
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="121" t="s">
         <v>97</v>
       </c>
       <c r="E20" s="99">
@@ -6201,7 +6197,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="20.25">
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="121" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="99">
@@ -6210,7 +6206,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="20.25">
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="121" t="s">
         <v>94</v>
       </c>
       <c r="E22" s="99">
@@ -6277,7 +6273,7 @@
       <c r="D5" s="94">
         <v>0.18</v>
       </c>
-      <c r="E5" s="145">
+      <c r="E5" s="134">
         <v>1.1000000000000001</v>
       </c>
       <c r="F5" s="95">
@@ -6294,7 +6290,7 @@
       <c r="D6" s="94">
         <v>0.22</v>
       </c>
-      <c r="E6" s="145">
+      <c r="E6" s="134">
         <v>1.25</v>
       </c>
       <c r="F6" s="95">
@@ -6311,7 +6307,7 @@
       <c r="D7" s="94">
         <v>0.16</v>
       </c>
-      <c r="E7" s="145">
+      <c r="E7" s="134">
         <v>1</v>
       </c>
       <c r="F7" s="69"/>
@@ -6329,16 +6325,16 @@
     </row>
     <row r="9" spans="1:6" ht="17.25" thickTop="1"/>
     <row r="10" spans="1:6" ht="18.75">
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="C10" s="144" t="s">
+      <c r="C10" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="D10" s="144" t="s">
+      <c r="D10" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="144" t="s">
+      <c r="E10" s="133" t="s">
         <v>110</v>
       </c>
     </row>

--- a/포트폴리오 구성 사례(2025).xlsx
+++ b/포트폴리오 구성 사례(2025).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kornu-my.sharepoint.com/personal/11378_office_kornu_ac_kr/Documents/금융연수원/자산관리/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="8_{1B35007C-570C-465E-885F-56BF93A21D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A94FBF86-98BB-4879-8EB8-D0F1AF71F122}"/>
+  <xr:revisionPtr revIDLastSave="181" documentId="8_{1B35007C-570C-465E-885F-56BF93A21D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7370CC45-0467-41C8-A603-9F88964615ED}"/>
   <bookViews>
-    <workbookView xWindow="14175" yWindow="0" windowWidth="14625" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPM_Duration" sheetId="5" r:id="rId1"/>
@@ -3719,6 +3719,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -3985,7 +3989,7 @@
   <dimension ref="A2:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4693,7 +4697,7 @@
   <dimension ref="A2:I6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4841,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B8513B-8140-475B-8B09-02014327393B}">
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5270,7 +5274,7 @@
   <dimension ref="B2:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5382,7 +5386,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="31">
-        <v>0.1</v>
+        <v>0.21729999999999999</v>
       </c>
       <c r="K4" s="31">
         <v>1</v>
@@ -5416,11 +5420,11 @@
       <c r="I5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="31">
-        <v>-0.1</v>
-      </c>
-      <c r="K5" s="31">
-        <v>-0.1</v>
+      <c r="J5" s="132">
+        <v>-0.14249999999999999</v>
+      </c>
+      <c r="K5" s="132">
+        <v>-0.185</v>
       </c>
       <c r="L5" s="31">
         <v>1</v>
@@ -5453,7 +5457,7 @@
       <c r="I6" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="132">
         <v>-0.1</v>
       </c>
       <c r="K6" s="31">
@@ -5524,7 +5528,7 @@
       </c>
       <c r="G8" s="39">
         <f>SQRT(G3^2+G4^2+G5^2+G6^2+G7^2+2*G3*G4*J4+2*G3*G5*J5+2*G3*G6*J6+2*G4*G5*K5+2*G4*G6*K6+2*G5*G6*L6+2*G7*G3*J7+2*G7*G4*K7+2*G7*G5*L7+2*G7*G6*M7)</f>
-        <v>3.6428011200173964E-2</v>
+        <v>3.6383743622667525E-2</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -5563,7 +5567,7 @@
       </c>
       <c r="G11" s="38">
         <f>(G10-F8)/G8</f>
-        <v>-1.2215874140224128</v>
+        <v>-1.2230737018572204</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -5572,7 +5576,7 @@
       </c>
       <c r="G12" s="14">
         <f>_xlfn.NORM.S.DIST(G11,TRUE)</f>
-        <v>0.11093184527126547</v>
+        <v>0.11065093019047327</v>
       </c>
     </row>
   </sheetData>

--- a/포트폴리오 구성 사례(2025).xlsx
+++ b/포트폴리오 구성 사례(2025).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="181" documentId="8_{1B35007C-570C-465E-885F-56BF93A21D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7370CC45-0467-41C8-A603-9F88964615ED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPM_Duration" sheetId="5" r:id="rId1"/>
@@ -3719,10 +3719,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -3988,17 +3984,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8877C75-8746-48F9-97F6-1CF16C388926}">
   <dimension ref="A2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -4089,8 +4085,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" thickBot="1"/>
-    <row r="14" spans="1:6" ht="30.75" thickTop="1">
+    <row r="13" spans="1:6" ht="18" thickBot="1"/>
+    <row r="14" spans="1:6" ht="28.2" thickTop="1">
       <c r="B14" s="50" t="s">
         <v>65</v>
       </c>
@@ -4212,7 +4208,7 @@
         <v>4.0956281651677555</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" thickBot="1">
+    <row r="20" spans="1:6" ht="18" thickBot="1">
       <c r="B20" s="57" t="s">
         <v>51</v>
       </c>
@@ -4227,7 +4223,7 @@
         <v>4.5346525497795742</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" thickTop="1"/>
+    <row r="21" spans="1:6" ht="18" thickTop="1"/>
     <row r="23" spans="1:6">
       <c r="B23" s="43" t="s">
         <v>58</v>
@@ -4261,8 +4257,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.25" thickBot="1"/>
-    <row r="27" spans="1:6" ht="30.75" thickTop="1">
+    <row r="26" spans="1:6" ht="18" thickBot="1"/>
+    <row r="27" spans="1:6" ht="28.2" thickTop="1">
       <c r="B27" s="50" t="s">
         <v>65</v>
       </c>
@@ -4342,7 +4338,7 @@
         <v>2.7174381890646835</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1">
+    <row r="31" spans="1:6" ht="18" thickBot="1">
       <c r="B31" s="57" t="s">
         <v>51</v>
       </c>
@@ -4357,7 +4353,7 @@
         <v>2.8573474352559565</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.25" thickTop="1"/>
+    <row r="32" spans="1:6" ht="18" thickTop="1"/>
     <row r="34" spans="1:6">
       <c r="B34" s="43" t="s">
         <v>58</v>
@@ -4391,8 +4387,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.25" thickBot="1"/>
-    <row r="38" spans="1:6" ht="30.75" thickTop="1">
+    <row r="37" spans="1:6" ht="18" thickBot="1"/>
+    <row r="38" spans="1:6" ht="28.2" thickTop="1">
       <c r="B38" s="50" t="s">
         <v>65</v>
       </c>
@@ -4661,7 +4657,7 @@
         <v>10.738934243820511</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="17.25" thickBot="1">
+    <row r="51" spans="2:6" ht="18" thickBot="1">
       <c r="B51" s="57" t="s">
         <v>51</v>
       </c>
@@ -4676,7 +4672,7 @@
         <v>11.35641653759966</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="17.25" thickTop="1">
+    <row r="52" spans="2:6" ht="18" thickTop="1">
       <c r="E52" t="s">
         <v>113</v>
       </c>
@@ -4697,16 +4693,16 @@
   <dimension ref="A2:I6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="12.09765625" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" customWidth="1"/>
+    <col min="9" max="9" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="20.25" customHeight="1">
@@ -4845,22 +4841,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B8513B-8140-475B-8B09-02014327393B}">
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="4" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" customWidth="1"/>
+    <col min="4" max="5" width="11.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="28.5">
+    <row r="2" spans="2:14" ht="31.2">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -4899,7 +4895,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="17.25">
+    <row r="3" spans="2:14" ht="19.2">
       <c r="B3" s="27" t="s">
         <v>123</v>
       </c>
@@ -4932,7 +4928,7 @@
       <c r="M3" s="132"/>
       <c r="N3" s="132"/>
     </row>
-    <row r="4" spans="2:14" ht="17.25">
+    <row r="4" spans="2:14" ht="19.2">
       <c r="B4" s="27" t="s">
         <v>124</v>
       </c>
@@ -4967,7 +4963,7 @@
       <c r="M4" s="132"/>
       <c r="N4" s="132"/>
     </row>
-    <row r="5" spans="2:14" ht="17.25">
+    <row r="5" spans="2:14" ht="19.2">
       <c r="B5" s="27" t="s">
         <v>125</v>
       </c>
@@ -5004,7 +5000,7 @@
       <c r="M5" s="132"/>
       <c r="N5" s="132"/>
     </row>
-    <row r="6" spans="2:14" ht="17.45" customHeight="1">
+    <row r="6" spans="2:14" ht="17.399999999999999" customHeight="1">
       <c r="B6" s="27" t="s">
         <v>126</v>
       </c>
@@ -5043,7 +5039,7 @@
       </c>
       <c r="N6" s="132"/>
     </row>
-    <row r="7" spans="2:14" ht="17.45" customHeight="1">
+    <row r="7" spans="2:14" ht="17.399999999999999" customHeight="1">
       <c r="B7" s="27" t="s">
         <v>127</v>
       </c>
@@ -5084,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="17.25">
+    <row r="8" spans="2:14" ht="19.2">
       <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
@@ -5110,7 +5106,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
     </row>
-    <row r="9" spans="2:14" ht="17.25">
+    <row r="9" spans="2:14" ht="19.2">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -5141,16 +5137,16 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
@@ -5163,7 +5159,7 @@
       <c r="D2" s="138"/>
       <c r="E2" s="139"/>
     </row>
-    <row r="3" spans="2:9" ht="21.75">
+    <row r="3" spans="2:9" ht="22.8">
       <c r="B3" s="136"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -5175,7 +5171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="43.5">
+    <row r="4" spans="2:9" ht="45.6">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -5189,7 +5185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="43.5">
+    <row r="5" spans="2:9" ht="45.6">
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -5227,7 +5223,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="21.75">
+    <row r="8" spans="2:9" ht="45.6">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5273,22 +5269,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5C01A9-3285-441C-A791-F929A142CEF8}">
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="4" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="13.59765625" customWidth="1"/>
+    <col min="4" max="5" width="11.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.25" customWidth="1"/>
+    <col min="13" max="13" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="28.5">
+    <row r="2" spans="2:14" ht="31.2">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -5327,7 +5323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="17.25">
+    <row r="3" spans="2:14" ht="19.2">
       <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
@@ -5360,7 +5356,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="2:14" ht="17.25">
+    <row r="4" spans="2:14" ht="19.2">
       <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
@@ -5395,7 +5391,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="2:14" ht="17.25">
+    <row r="5" spans="2:14" ht="19.2">
       <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
@@ -5432,7 +5428,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="2:14" ht="17.45" customHeight="1">
+    <row r="6" spans="2:14" ht="17.399999999999999" customHeight="1">
       <c r="B6" s="27" t="s">
         <v>42</v>
       </c>
@@ -5471,7 +5467,7 @@
       </c>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="2:14" ht="17.45" customHeight="1">
+    <row r="7" spans="2:14" ht="17.399999999999999" customHeight="1">
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
@@ -5512,7 +5508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="17.25">
+    <row r="8" spans="2:14" ht="19.2">
       <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
@@ -5538,7 +5534,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
     </row>
-    <row r="9" spans="2:14" ht="17.25">
+    <row r="9" spans="2:14" ht="19.2">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -5595,19 +5591,19 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="26.25">
+    <row r="2" spans="2:7" ht="25.2">
       <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="37.5">
+    <row r="14" spans="2:7" ht="34.799999999999997">
       <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
@@ -5627,7 +5623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="37.5">
+    <row r="15" spans="2:7" ht="34.799999999999997">
       <c r="B15" s="17" t="s">
         <v>34</v>
       </c>
@@ -5647,7 +5643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="20.25">
+    <row r="17" spans="2:5" ht="21">
       <c r="B17" s="19" t="s">
         <v>39</v>
       </c>
@@ -5657,7 +5653,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="2:5" ht="20.25">
+    <row r="18" spans="2:5" ht="21">
       <c r="B18" s="21" t="s">
         <v>22</v>
       </c>
@@ -5671,7 +5667,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="20.25">
+    <row r="19" spans="2:5" ht="21">
       <c r="B19" s="21" t="s">
         <v>9</v>
       </c>
@@ -5686,7 +5682,7 @@
         <v>5.2000000000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="20.25">
+    <row r="20" spans="2:5" ht="21">
       <c r="B20" s="21" t="s">
         <v>10</v>
       </c>
@@ -5712,31 +5708,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F4A0D2-DD99-4351-BEE5-877897F6FC54}">
   <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="15.09765625" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" customWidth="1"/>
+    <col min="7" max="7" width="14.8984375" customWidth="1"/>
+    <col min="8" max="8" width="16.8984375" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="21">
+    <row r="2" spans="2:11" ht="20.399999999999999">
       <c r="B2" s="67" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="17.25" thickBot="1"/>
-    <row r="4" spans="2:11" ht="41.25" thickTop="1">
+    <row r="3" spans="2:11" ht="18" thickBot="1"/>
+    <row r="4" spans="2:11" ht="41.4" thickTop="1">
       <c r="B4" s="44" t="s">
         <v>72</v>
       </c>
@@ -5759,7 +5755,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="23.25">
+    <row r="5" spans="2:11" ht="22.8">
       <c r="B5" s="46">
         <v>0</v>
       </c>
@@ -5776,7 +5772,7 @@
       <c r="J5" s="86"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="20.25">
+    <row r="6" spans="2:11" ht="21">
       <c r="B6" s="46">
         <v>1</v>
       </c>
@@ -5800,7 +5796,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="20.25">
+    <row r="7" spans="2:11" ht="21">
       <c r="B7" s="46">
         <v>2</v>
       </c>
@@ -5824,7 +5820,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="17.25" thickBot="1">
+    <row r="8" spans="2:11" ht="18" thickBot="1">
       <c r="B8" s="48">
         <v>3</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="22.5" thickTop="1">
+    <row r="9" spans="2:11" ht="22.2" thickTop="1">
       <c r="J9" s="73" t="s">
         <v>76</v>
       </c>
@@ -5844,7 +5840,7 @@
         <v>0.27649999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="21.75">
+    <row r="10" spans="2:11" ht="21.6">
       <c r="B10" s="73" t="s">
         <v>76</v>
       </c>
@@ -5860,7 +5856,7 @@
         <v>0.12982299498638272</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="19.5">
+    <row r="11" spans="2:11" ht="20.399999999999999">
       <c r="B11" s="73" t="s">
         <v>77</v>
       </c>
@@ -5869,13 +5865,13 @@
         <v>5.9104500597819021E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="21">
+    <row r="14" spans="2:11" ht="20.399999999999999">
       <c r="B14" s="67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="17.25" thickBot="1"/>
-    <row r="16" spans="2:11" ht="20.25" thickTop="1">
+    <row r="15" spans="2:11" ht="18" thickBot="1"/>
+    <row r="16" spans="2:11" ht="21" thickTop="1">
       <c r="B16" s="44" t="s">
         <v>72</v>
       </c>
@@ -5898,7 +5894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="23.25">
+    <row r="17" spans="2:8" ht="22.8">
       <c r="B17" s="46">
         <v>0</v>
       </c>
@@ -5920,7 +5916,7 @@
         <v>-10000000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="19.5">
+    <row r="18" spans="2:8" ht="20.399999999999999">
       <c r="B18" s="46">
         <v>1</v>
       </c>
@@ -5944,7 +5940,7 @@
         <v>-11000000</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="19.5">
+    <row r="19" spans="2:8" ht="20.399999999999999">
       <c r="B19" s="46">
         <v>2</v>
       </c>
@@ -5968,7 +5964,7 @@
         <v>-132000000</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="24" thickBot="1">
+    <row r="20" spans="2:8" ht="23.4" thickBot="1">
       <c r="B20" s="48">
         <v>3</v>
       </c>
@@ -5990,7 +5986,7 @@
         <v>142560000</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="20.25" thickTop="1">
+    <row r="21" spans="2:8" ht="21" thickTop="1">
       <c r="H21" s="82">
         <f>IRR(H17:H20)</f>
         <v>-5.7464630134328565E-2</v>
@@ -6006,19 +6002,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA65D0D6-CF97-4CD2-8BF6-DA0D7ED093AE}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" customWidth="1"/>
+    <col min="3" max="3" width="10.8984375" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="22.5">
+    <row r="2" spans="2:6" ht="22.2">
       <c r="B2" s="91" t="s">
         <v>87</v>
       </c>
@@ -6026,7 +6022,7 @@
     <row r="3" spans="2:6" ht="21" customHeight="1" thickBot="1">
       <c r="B3" s="91"/>
     </row>
-    <row r="4" spans="2:6" ht="17.25" thickTop="1">
+    <row r="4" spans="2:6" ht="18" thickTop="1">
       <c r="B4" s="141" t="s">
         <v>15</v>
       </c>
@@ -6105,7 +6101,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="17.25" thickBot="1">
+    <row r="9" spans="2:6" ht="18" thickBot="1">
       <c r="B9" s="96" t="s">
         <v>51</v>
       </c>
@@ -6126,13 +6122,13 @@
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="17.25" thickTop="1"/>
+    <row r="10" spans="2:6" ht="18" thickTop="1"/>
     <row r="11" spans="2:6" ht="21.75" customHeight="1">
       <c r="B11" s="120" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="20.25">
+    <row r="12" spans="2:6" ht="21">
       <c r="B12" s="121" t="s">
         <v>91</v>
       </c>
@@ -6141,7 +6137,7 @@
         <v>3.3450000000000008E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="20.25">
+    <row r="13" spans="2:6" ht="21">
       <c r="B13" s="121" t="s">
         <v>92</v>
       </c>
@@ -6150,7 +6146,7 @@
         <v>7.6999999999999963E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="20.25">
+    <row r="14" spans="2:6" ht="21">
       <c r="B14" s="121" t="s">
         <v>93</v>
       </c>
@@ -6159,7 +6155,7 @@
         <v>1.0349999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="20.25">
+    <row r="15" spans="2:6" ht="21">
       <c r="B15" s="121" t="s">
         <v>94</v>
       </c>
@@ -6168,21 +6164,21 @@
         <v>5.1500000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="20.25">
+    <row r="16" spans="2:6" ht="21">
       <c r="B16" s="25"/>
       <c r="E16" s="100"/>
     </row>
-    <row r="17" spans="2:5" ht="20.25">
+    <row r="17" spans="2:5" ht="21">
       <c r="B17" s="25"/>
       <c r="E17" s="100"/>
     </row>
-    <row r="18" spans="2:5" ht="20.25">
+    <row r="18" spans="2:5" ht="21">
       <c r="B18" s="122" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="100"/>
     </row>
-    <row r="19" spans="2:5" ht="20.25">
+    <row r="19" spans="2:5" ht="21">
       <c r="B19" s="121" t="s">
         <v>96</v>
       </c>
@@ -6191,7 +6187,7 @@
         <v>1.3500000000000012E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="20.25">
+    <row r="20" spans="2:5" ht="21">
       <c r="B20" s="121" t="s">
         <v>97</v>
       </c>
@@ -6200,7 +6196,7 @@
         <v>-4.9999999999999871E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="20.25">
+    <row r="21" spans="2:5" ht="21">
       <c r="B21" s="121" t="s">
         <v>98</v>
       </c>
@@ -6209,7 +6205,7 @@
         <v>9.9999999999999923E-5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="20.25">
+    <row r="22" spans="2:5" ht="21">
       <c r="B22" s="121" t="s">
         <v>94</v>
       </c>
@@ -6237,19 +6233,19 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="2" max="5" width="17.3984375" customWidth="1"/>
+    <col min="6" max="6" width="22.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="21">
+    <row r="2" spans="1:6" ht="20.399999999999999">
       <c r="B2" s="67" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1"/>
+    <row r="3" spans="1:6" ht="18" thickBot="1"/>
     <row r="4" spans="1:6" ht="24" customHeight="1" thickTop="1">
       <c r="B4" s="44" t="s">
         <v>15</v>
@@ -6327,8 +6323,8 @@
       <c r="E8" s="49"/>
       <c r="F8" s="105"/>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickTop="1"/>
-    <row r="10" spans="1:6" ht="18.75">
+    <row r="9" spans="1:6" ht="18" thickTop="1"/>
+    <row r="10" spans="1:6" ht="18">
       <c r="B10" s="133" t="s">
         <v>107</v>
       </c>

--- a/포트폴리오 구성 사례(2025).xlsx
+++ b/포트폴리오 구성 사례(2025).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365kornu-my.sharepoint.com/personal/11378_office_kornu_ac_kr/Documents/금융연수원/자산관리/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBI\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="8_{1B35007C-570C-465E-885F-56BF93A21D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7370CC45-0467-41C8-A603-9F88964615ED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CAPM_Duration" sheetId="5" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="P_Evaluation" sheetId="7" r:id="rId8"/>
     <sheet name="Risk_Adjust" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
   <si>
     <t>개별자산</t>
   </si>
@@ -564,22 +563,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DAX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Nikkei225</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Nifty50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="11">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000%"/>
@@ -1308,7 +1311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1746,6 +1749,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1811,6 +1817,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1836,7 +1843,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2000,7 +2007,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2015,7 +2024,7 @@
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DAX</c:v>
+                  <c:v>Gold</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Nikkei225</c:v>
@@ -2033,7 +2042,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -2042,7 +2051,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.2</c:v>
@@ -2077,6 +2086,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2084,7 +2094,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2160,6 +2169,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2185,7 +2195,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+          <a:endParaRPr lang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2349,7 +2359,9 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2382,13 +2394,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2</c:v>
@@ -2426,6 +2438,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2433,7 +2446,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3981,20 +3993,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8877C75-8746-48F9-97F6-1CF16C388926}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F52"/>
   <sheetViews>
     <sheetView topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12.8984375" customWidth="1"/>
-    <col min="3" max="3" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -4085,8 +4097,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" thickBot="1"/>
-    <row r="14" spans="1:6" ht="28.2" thickTop="1">
+    <row r="13" spans="1:6" ht="17.25" thickBot="1"/>
+    <row r="14" spans="1:6" ht="30.75" thickTop="1">
       <c r="B14" s="50" t="s">
         <v>65</v>
       </c>
@@ -4208,7 +4220,7 @@
         <v>4.0956281651677555</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" thickBot="1">
+    <row r="20" spans="1:6" ht="17.25" thickBot="1">
       <c r="B20" s="57" t="s">
         <v>51</v>
       </c>
@@ -4223,7 +4235,7 @@
         <v>4.5346525497795742</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" thickTop="1"/>
+    <row r="21" spans="1:6" ht="17.25" thickTop="1"/>
     <row r="23" spans="1:6">
       <c r="B23" s="43" t="s">
         <v>58</v>
@@ -4257,8 +4269,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" thickBot="1"/>
-    <row r="27" spans="1:6" ht="28.2" thickTop="1">
+    <row r="26" spans="1:6" ht="17.25" thickBot="1"/>
+    <row r="27" spans="1:6" ht="30.75" thickTop="1">
       <c r="B27" s="50" t="s">
         <v>65</v>
       </c>
@@ -4338,7 +4350,7 @@
         <v>2.7174381890646835</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" thickBot="1">
+    <row r="31" spans="1:6" ht="17.25" thickBot="1">
       <c r="B31" s="57" t="s">
         <v>51</v>
       </c>
@@ -4353,7 +4365,7 @@
         <v>2.8573474352559565</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" thickTop="1"/>
+    <row r="32" spans="1:6" ht="17.25" thickTop="1"/>
     <row r="34" spans="1:6">
       <c r="B34" s="43" t="s">
         <v>58</v>
@@ -4387,8 +4399,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" thickBot="1"/>
-    <row r="38" spans="1:6" ht="28.2" thickTop="1">
+    <row r="37" spans="1:6" ht="17.25" thickBot="1"/>
+    <row r="38" spans="1:6" ht="30.75" thickTop="1">
       <c r="B38" s="50" t="s">
         <v>65</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>10.738934243820511</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="18" thickBot="1">
+    <row r="51" spans="2:6" ht="17.25" thickBot="1">
       <c r="B51" s="57" t="s">
         <v>51</v>
       </c>
@@ -4672,7 +4684,7 @@
         <v>11.35641653759966</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="18" thickTop="1">
+    <row r="52" spans="2:6" ht="17.25" thickTop="1">
       <c r="E52" t="s">
         <v>113</v>
       </c>
@@ -4689,20 +4701,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12.09765625" customWidth="1"/>
-    <col min="3" max="3" width="10.19921875" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="20.25" customHeight="1">
@@ -4838,25 +4850,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B8513B-8140-475B-8B09-02014327393B}">
-  <dimension ref="B2:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="13.59765625" customWidth="1"/>
-    <col min="4" max="5" width="11.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="4" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="31.2">
+    <row r="2" spans="2:14" ht="28.5">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -4886,35 +4898,35 @@
         <v>124</v>
       </c>
       <c r="L2" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="N2" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" ht="19.2">
+    </row>
+    <row r="3" spans="2:14" ht="17.25">
       <c r="B3" s="27" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="28">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D3" s="29">
         <v>0.09</v>
       </c>
       <c r="E3" s="29">
-        <v>0.2137</v>
+        <v>0.2112</v>
       </c>
       <c r="F3" s="30">
         <f>D3*C3</f>
-        <v>1.7999999999999999E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G3" s="30">
         <f>+E3*C3</f>
-        <v>4.274E-2</v>
+        <v>6.336E-2</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="27" t="s">
@@ -4928,7 +4940,7 @@
       <c r="M3" s="132"/>
       <c r="N3" s="132"/>
     </row>
-    <row r="4" spans="2:14" ht="19.2">
+    <row r="4" spans="2:14" ht="17.25">
       <c r="B4" s="27" t="s">
         <v>124</v>
       </c>
@@ -4936,25 +4948,25 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="29">
-        <v>8.7999999999999995E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E4" s="29">
-        <v>0.21790000000000001</v>
+        <v>0.2147</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:F7" si="0">D4*C4</f>
-        <v>1.7600000000000001E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G4" s="30">
         <f t="shared" ref="G4:G7" si="1">+E4*C4</f>
-        <v>4.3580000000000008E-2</v>
+        <v>4.2940000000000006E-2</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="27" t="s">
         <v>124</v>
       </c>
       <c r="J4" s="132">
-        <v>0.3</v>
+        <v>0.2974</v>
       </c>
       <c r="K4" s="132">
         <v>1</v>
@@ -4963,36 +4975,36 @@
       <c r="M4" s="132"/>
       <c r="N4" s="132"/>
     </row>
-    <row r="5" spans="2:14" ht="19.2">
+    <row r="5" spans="2:14" ht="17.25">
       <c r="B5" s="27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" s="28">
         <v>0.2</v>
       </c>
       <c r="D5" s="29">
-        <v>8.5000000000000006E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="29">
-        <v>0.2341</v>
+        <v>0.1867</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" si="0"/>
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G5" s="30">
         <f t="shared" si="1"/>
-        <v>4.6820000000000001E-2</v>
+        <v>3.7340000000000005E-2</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J5" s="132">
-        <v>0.41697899999999999</v>
+        <v>5.7854999999999997E-2</v>
       </c>
       <c r="K5" s="132">
-        <v>0.64093800000000001</v>
+        <v>6.2604999999999994E-2</v>
       </c>
       <c r="L5" s="132">
         <v>1</v>
@@ -5000,48 +5012,48 @@
       <c r="M5" s="132"/>
       <c r="N5" s="132"/>
     </row>
-    <row r="6" spans="2:14" ht="17.399999999999999" customHeight="1">
+    <row r="6" spans="2:14" ht="17.45" customHeight="1">
       <c r="B6" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" s="29">
-        <v>0.2581</v>
+        <v>0.25430000000000003</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" si="0"/>
-        <v>1.4000000000000002E-2</v>
+        <v>7.000000000000001E-3</v>
       </c>
       <c r="G6" s="30">
         <f t="shared" si="1"/>
-        <v>5.1619999999999999E-2</v>
+        <v>2.5430000000000005E-2</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J6" s="132">
-        <v>0.66349999999999998</v>
+        <v>0.66018900000000003</v>
       </c>
       <c r="K6" s="132">
-        <v>0.26344400000000001</v>
+        <v>0.26379900000000001</v>
       </c>
       <c r="L6" s="132">
-        <v>0.42276399999999997</v>
+        <v>8.2939999999999993E-3</v>
       </c>
       <c r="M6" s="132">
         <v>1</v>
       </c>
       <c r="N6" s="132"/>
     </row>
-    <row r="7" spans="2:14" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="2:14" ht="17.45" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C7" s="28">
         <v>0.2</v>
@@ -5050,7 +5062,7 @@
         <v>0.11</v>
       </c>
       <c r="E7" s="29">
-        <v>0.22939999999999999</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" si="0"/>
@@ -5058,29 +5070,29 @@
       </c>
       <c r="G7" s="30">
         <f t="shared" si="1"/>
-        <v>4.5880000000000004E-2</v>
+        <v>4.5200000000000004E-2</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J7" s="132">
-        <v>0.49917</v>
+        <v>0.49678600000000001</v>
       </c>
       <c r="K7" s="132">
-        <v>0.35153800000000002</v>
+        <v>0.35177700000000001</v>
       </c>
       <c r="L7" s="132">
-        <v>0.45461699999999999</v>
+        <v>4.6087000000000003E-2</v>
       </c>
       <c r="M7" s="132">
-        <v>0.433811</v>
+        <v>0.432338</v>
       </c>
       <c r="N7" s="132">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="19.2">
+    <row r="8" spans="2:14" ht="17.25">
       <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
@@ -5092,11 +5104,11 @@
       <c r="E8" s="32"/>
       <c r="F8" s="39">
         <f>SUM(F3:F7)</f>
-        <v>8.8600000000000012E-2</v>
+        <v>8.900000000000001E-2</v>
       </c>
       <c r="G8" s="39">
         <f>SQRT(G3^2+G4^2+G5^2+G6^2+G7^2+2*G3*G4*J4+2*G3*G5*J5+2*G3*G6*J6+2*G4*G5*K5+2*G4*G6*K6+2*G5*G6*L6+2*G7*G3*J7+2*G7*G4*K7+2*G7*G5*L7+2*G7*G6*M7)</f>
-        <v>0.1720971291147996</v>
+        <v>0.14182689611006652</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -5106,7 +5118,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
     </row>
-    <row r="9" spans="2:14" ht="19.2">
+    <row r="9" spans="2:14" ht="17.25">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -5121,6 +5133,21 @@
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
     </row>
+    <row r="10" spans="2:14">
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10">
+        <f>(0-F8)/G8</f>
+        <v>-0.62752554304601338</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="H11" s="146">
+        <f>_xlfn.NORM.S.DIST(H10,TRUE)</f>
+        <v>0.26515739903612268</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5130,23 +5157,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9D6FD2-E49E-400C-9B67-5D1CDDAE9850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="11.8984375" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" customWidth="1"/>
-    <col min="5" max="5" width="15.69921875" customWidth="1"/>
-    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.3984375" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="21.75" customHeight="1">
@@ -5159,7 +5186,7 @@
       <c r="D2" s="138"/>
       <c r="E2" s="139"/>
     </row>
-    <row r="3" spans="2:9" ht="22.8">
+    <row r="3" spans="2:9" ht="21.75">
       <c r="B3" s="136"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -5171,7 +5198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="45.6">
+    <row r="4" spans="2:9" ht="43.5">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -5185,7 +5212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="45.6">
+    <row r="5" spans="2:9" ht="43.5">
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -5223,7 +5250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="45.6">
+    <row r="8" spans="2:9" ht="21.75">
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5266,25 +5293,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5C01A9-3285-441C-A791-F929A142CEF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="13.59765625" customWidth="1"/>
-    <col min="4" max="5" width="11.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="4" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.19921875" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="31.2">
+    <row r="2" spans="2:14" ht="28.5">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -5323,26 +5350,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="19.2">
+    <row r="3" spans="2:14" ht="17.25">
       <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="28">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="29">
-        <v>0.09</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E3" s="29">
-        <v>0.18</v>
+        <v>0.14180000000000001</v>
       </c>
       <c r="F3" s="30">
         <f>D3*C3</f>
-        <v>1.7999999999999999E-2</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="G3" s="30">
         <f>+E3*C3</f>
-        <v>3.5999999999999997E-2</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="26" t="s">
@@ -5356,26 +5383,26 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="2:14" ht="19.2">
+    <row r="4" spans="2:14" ht="17.25">
       <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="28">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="29">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E4" s="29">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:F7" si="0">D4*C4</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="G4" s="30">
         <f t="shared" ref="G4:G7" si="1">+E4*C4</f>
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="26" t="s">
@@ -5391,26 +5418,26 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="2:14" ht="19.2">
+    <row r="5" spans="2:14" ht="17.25">
       <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="28">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="29">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="29">
         <v>0.04</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="G5" s="30">
         <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="26" t="s">
@@ -5428,7 +5455,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="2:14" ht="17.399999999999999" customHeight="1">
+    <row r="6" spans="2:14" ht="17.45" customHeight="1">
       <c r="B6" s="27" t="s">
         <v>42</v>
       </c>
@@ -5436,14 +5463,14 @@
         <v>0.2</v>
       </c>
       <c r="D6" s="29">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="29">
         <v>0.03</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" si="0"/>
-        <v>8.0000000000000002E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="G6" s="30">
         <f t="shared" si="1"/>
@@ -5467,7 +5494,7 @@
       </c>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="2:14" ht="17.399999999999999" customHeight="1">
+    <row r="7" spans="2:14" ht="17.45" customHeight="1">
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
@@ -5475,14 +5502,14 @@
         <v>0.1</v>
       </c>
       <c r="D7" s="29">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E7" s="29">
         <v>0</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G7" s="30">
         <f t="shared" si="1"/>
@@ -5508,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="19.2">
+    <row r="8" spans="2:14" ht="17.25">
       <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
@@ -5520,11 +5547,11 @@
       <c r="E8" s="32"/>
       <c r="F8" s="39">
         <f>SUM(F3:F7)</f>
-        <v>4.4500000000000005E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="G8" s="39">
         <f>SQRT(G3^2+G4^2+G5^2+G6^2+G7^2+2*G3*G4*J4+2*G3*G5*J5+2*G3*G6*J6+2*G4*G5*K5+2*G4*G6*K6+2*G5*G6*L6+2*G7*G3*J7+2*G7*G4*K7+2*G7*G5*L7+2*G7*G6*M7)</f>
-        <v>3.6383743622667525E-2</v>
+        <v>7.0228345915306883E-2</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -5534,7 +5561,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
     </row>
-    <row r="9" spans="2:14" ht="19.2">
+    <row r="9" spans="2:14" ht="17.25">
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -5563,7 +5590,7 @@
       </c>
       <c r="G11" s="38">
         <f>(G10-F8)/G8</f>
-        <v>-1.2230737018572204</v>
+        <v>-0.9184325667841432</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -5572,7 +5599,7 @@
       </c>
       <c r="G12" s="14">
         <f>_xlfn.NORM.S.DIST(G11,TRUE)</f>
-        <v>0.11065093019047327</v>
+        <v>0.17919622370851007</v>
       </c>
     </row>
   </sheetData>
@@ -5584,26 +5611,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137A9010-6EE3-430E-91DB-2BED27EF881D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="15.69921875" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="25.2">
+    <row r="2" spans="2:7" ht="26.25">
       <c r="B2" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="34.799999999999997">
+    <row r="14" spans="2:7" ht="37.5">
       <c r="B14" s="16" t="s">
         <v>28</v>
       </c>
@@ -5623,7 +5650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="34.799999999999997">
+    <row r="15" spans="2:7" ht="37.5">
       <c r="B15" s="17" t="s">
         <v>34</v>
       </c>
@@ -5643,7 +5670,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="21">
+    <row r="17" spans="2:5" ht="20.25">
       <c r="B17" s="19" t="s">
         <v>39</v>
       </c>
@@ -5653,7 +5680,7 @@
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="2:5" ht="21">
+    <row r="18" spans="2:5" ht="20.25">
       <c r="B18" s="21" t="s">
         <v>22</v>
       </c>
@@ -5667,7 +5694,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="21">
+    <row r="19" spans="2:5" ht="20.25">
       <c r="B19" s="21" t="s">
         <v>9</v>
       </c>
@@ -5682,7 +5709,7 @@
         <v>5.2000000000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="21">
+    <row r="20" spans="2:5" ht="20.25">
       <c r="B20" s="21" t="s">
         <v>10</v>
       </c>
@@ -5705,34 +5732,34 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F4A0D2-DD99-4351-BEE5-877897F6FC54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.09765625" customWidth="1"/>
+    <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" customWidth="1"/>
-    <col min="7" max="7" width="14.8984375" customWidth="1"/>
-    <col min="8" max="8" width="16.8984375" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="20.399999999999999">
+    <row r="2" spans="2:11" ht="21">
       <c r="B2" s="67" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="18" thickBot="1"/>
-    <row r="4" spans="2:11" ht="41.4" thickTop="1">
+    <row r="3" spans="2:11" ht="17.25" thickBot="1"/>
+    <row r="4" spans="2:11" ht="41.25" thickTop="1">
       <c r="B4" s="44" t="s">
         <v>72</v>
       </c>
@@ -5755,7 +5782,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="22.8">
+    <row r="5" spans="2:11" ht="23.25">
       <c r="B5" s="46">
         <v>0</v>
       </c>
@@ -5772,7 +5799,7 @@
       <c r="J5" s="86"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="21">
+    <row r="6" spans="2:11" ht="20.25">
       <c r="B6" s="46">
         <v>1</v>
       </c>
@@ -5796,7 +5823,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="21">
+    <row r="7" spans="2:11" ht="20.25">
       <c r="B7" s="46">
         <v>2</v>
       </c>
@@ -5820,7 +5847,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="18" thickBot="1">
+    <row r="8" spans="2:11" ht="17.25" thickBot="1">
       <c r="B8" s="48">
         <v>3</v>
       </c>
@@ -5831,7 +5858,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="22.2" thickTop="1">
+    <row r="9" spans="2:11" ht="22.5" thickTop="1">
       <c r="J9" s="73" t="s">
         <v>76</v>
       </c>
@@ -5840,7 +5867,7 @@
         <v>0.27649999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="21.6">
+    <row r="10" spans="2:11" ht="21.75">
       <c r="B10" s="73" t="s">
         <v>76</v>
       </c>
@@ -5856,7 +5883,7 @@
         <v>0.12982299498638272</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="20.399999999999999">
+    <row r="11" spans="2:11" ht="19.5">
       <c r="B11" s="73" t="s">
         <v>77</v>
       </c>
@@ -5865,13 +5892,13 @@
         <v>5.9104500597819021E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="20.399999999999999">
+    <row r="14" spans="2:11" ht="21">
       <c r="B14" s="67" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="18" thickBot="1"/>
-    <row r="16" spans="2:11" ht="21" thickTop="1">
+    <row r="15" spans="2:11" ht="17.25" thickBot="1"/>
+    <row r="16" spans="2:11" ht="20.25" thickTop="1">
       <c r="B16" s="44" t="s">
         <v>72</v>
       </c>
@@ -5894,7 +5921,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="22.8">
+    <row r="17" spans="2:8" ht="23.25">
       <c r="B17" s="46">
         <v>0</v>
       </c>
@@ -5916,7 +5943,7 @@
         <v>-10000000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="20.399999999999999">
+    <row r="18" spans="2:8" ht="19.5">
       <c r="B18" s="46">
         <v>1</v>
       </c>
@@ -5940,7 +5967,7 @@
         <v>-11000000</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="20.399999999999999">
+    <row r="19" spans="2:8" ht="19.5">
       <c r="B19" s="46">
         <v>2</v>
       </c>
@@ -5964,7 +5991,7 @@
         <v>-132000000</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="23.4" thickBot="1">
+    <row r="20" spans="2:8" ht="24" thickBot="1">
       <c r="B20" s="48">
         <v>3</v>
       </c>
@@ -5986,7 +6013,7 @@
         <v>142560000</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="21" thickTop="1">
+    <row r="21" spans="2:8" ht="20.25" thickTop="1">
       <c r="H21" s="82">
         <f>IRR(H17:H20)</f>
         <v>-5.7464630134328565E-2</v>
@@ -5999,22 +6026,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA65D0D6-CF97-4CD2-8BF6-DA0D7ED093AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="17.19921875" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="22.2">
+    <row r="2" spans="2:6" ht="22.5">
       <c r="B2" s="91" t="s">
         <v>87</v>
       </c>
@@ -6022,7 +6049,7 @@
     <row r="3" spans="2:6" ht="21" customHeight="1" thickBot="1">
       <c r="B3" s="91"/>
     </row>
-    <row r="4" spans="2:6" ht="18" thickTop="1">
+    <row r="4" spans="2:6" ht="17.25" thickTop="1">
       <c r="B4" s="141" t="s">
         <v>15</v>
       </c>
@@ -6101,7 +6128,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18" thickBot="1">
+    <row r="9" spans="2:6" ht="17.25" thickBot="1">
       <c r="B9" s="96" t="s">
         <v>51</v>
       </c>
@@ -6122,13 +6149,13 @@
         <v>3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="18" thickTop="1"/>
+    <row r="10" spans="2:6" ht="17.25" thickTop="1"/>
     <row r="11" spans="2:6" ht="21.75" customHeight="1">
       <c r="B11" s="120" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="21">
+    <row r="12" spans="2:6" ht="20.25">
       <c r="B12" s="121" t="s">
         <v>91</v>
       </c>
@@ -6137,7 +6164,7 @@
         <v>3.3450000000000008E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="21">
+    <row r="13" spans="2:6" ht="20.25">
       <c r="B13" s="121" t="s">
         <v>92</v>
       </c>
@@ -6146,7 +6173,7 @@
         <v>7.6999999999999963E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="21">
+    <row r="14" spans="2:6" ht="20.25">
       <c r="B14" s="121" t="s">
         <v>93</v>
       </c>
@@ -6155,7 +6182,7 @@
         <v>1.0349999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="21">
+    <row r="15" spans="2:6" ht="20.25">
       <c r="B15" s="121" t="s">
         <v>94</v>
       </c>
@@ -6164,21 +6191,21 @@
         <v>5.1500000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="21">
+    <row r="16" spans="2:6" ht="20.25">
       <c r="B16" s="25"/>
       <c r="E16" s="100"/>
     </row>
-    <row r="17" spans="2:5" ht="21">
+    <row r="17" spans="2:5" ht="20.25">
       <c r="B17" s="25"/>
       <c r="E17" s="100"/>
     </row>
-    <row r="18" spans="2:5" ht="21">
+    <row r="18" spans="2:5" ht="20.25">
       <c r="B18" s="122" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="100"/>
     </row>
-    <row r="19" spans="2:5" ht="21">
+    <row r="19" spans="2:5" ht="20.25">
       <c r="B19" s="121" t="s">
         <v>96</v>
       </c>
@@ -6187,7 +6214,7 @@
         <v>1.3500000000000012E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="21">
+    <row r="20" spans="2:5" ht="20.25">
       <c r="B20" s="121" t="s">
         <v>97</v>
       </c>
@@ -6196,7 +6223,7 @@
         <v>-4.9999999999999871E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="21">
+    <row r="21" spans="2:5" ht="20.25">
       <c r="B21" s="121" t="s">
         <v>98</v>
       </c>
@@ -6205,7 +6232,7 @@
         <v>9.9999999999999923E-5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="21">
+    <row r="22" spans="2:5" ht="20.25">
       <c r="B22" s="121" t="s">
         <v>94</v>
       </c>
@@ -6226,26 +6253,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C506FF18-E08B-4C83-A90D-CA184C3EE2CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="5" width="17.3984375" customWidth="1"/>
-    <col min="6" max="6" width="22.69921875" customWidth="1"/>
+    <col min="2" max="5" width="17.375" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="20.399999999999999">
+    <row r="2" spans="1:6" ht="21">
       <c r="B2" s="67" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" thickBot="1"/>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1"/>
     <row r="4" spans="1:6" ht="24" customHeight="1" thickTop="1">
       <c r="B4" s="44" t="s">
         <v>15</v>
@@ -6323,8 +6350,8 @@
       <c r="E8" s="49"/>
       <c r="F8" s="105"/>
     </row>
-    <row r="9" spans="1:6" ht="18" thickTop="1"/>
-    <row r="10" spans="1:6" ht="18">
+    <row r="9" spans="1:6" ht="17.25" thickTop="1"/>
+    <row r="10" spans="1:6" ht="18.75">
       <c r="B10" s="133" t="s">
         <v>107</v>
       </c>
@@ -6396,5 +6423,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/포트폴리오 구성 사례(2025).xlsx
+++ b/포트폴리오 구성 사례(2025).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KBI\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IBK은행\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E9325C-3B5A-463E-8FB6-44B4B40F0609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAPM_Duration" sheetId="5" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="P_Evaluation" sheetId="7" r:id="rId8"/>
     <sheet name="Risk_Adjust" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="128">
   <si>
     <t>개별자산</t>
   </si>
@@ -563,26 +564,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>DAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Nikkei225</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Nifty50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000%"/>
@@ -1311,7 +1308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1749,9 +1746,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1817,7 +1811,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1843,7 +1836,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2007,9 +2000,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2024,7 +2015,7 @@
                   <c:v>S&amp;P500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gold</c:v>
+                  <c:v>DAX</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Nikkei225</c:v>
@@ -2042,7 +2033,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.2</c:v>
@@ -2051,7 +2042,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.2</c:v>
@@ -2169,7 +2160,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2195,7 +2185,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
+          <a:endParaRPr lang="en-US" altLang="ko-KR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2359,9 +2349,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2394,13 +2382,13 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.2</c:v>
@@ -3993,10 +3981,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8877C75-8746-48F9-97F6-1CF16C388926}">
   <dimension ref="A2:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4115,7 +4103,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="18.75">
       <c r="B15" s="53">
         <v>1</v>
       </c>
@@ -4136,7 +4124,7 @@
         <v>4.9244154240489217E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="18.75">
       <c r="B16" s="53">
         <v>2</v>
       </c>
@@ -4157,7 +4145,7 @@
         <v>9.2913498566960781E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="18.75">
       <c r="B17" s="53">
         <v>3</v>
       </c>
@@ -4178,7 +4166,7 @@
         <v>0.13148136589664261</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="18.75">
       <c r="B18" s="53">
         <v>4</v>
       </c>
@@ -4199,7 +4187,7 @@
         <v>0.16538536590772654</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="18.75">
       <c r="B19" s="60">
         <v>5</v>
       </c>
@@ -4220,7 +4208,7 @@
         <v>4.0956281651677555</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25" thickBot="1">
+    <row r="20" spans="1:6" ht="19.5" thickBot="1">
       <c r="B20" s="57" t="s">
         <v>51</v>
       </c>
@@ -4287,7 +4275,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="18.75">
       <c r="B28" s="53">
         <v>1</v>
       </c>
@@ -4308,7 +4296,7 @@
         <v>4.8465294432271093E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="18.75">
       <c r="B29" s="53">
         <v>2</v>
       </c>
@@ -4329,7 +4317,7 @@
         <v>9.1443951759002065E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="18.75">
       <c r="B30" s="60">
         <v>3</v>
       </c>
@@ -4350,7 +4338,7 @@
         <v>2.7174381890646835</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.25" thickBot="1">
+    <row r="31" spans="1:6" ht="19.5" thickBot="1">
       <c r="B31" s="57" t="s">
         <v>51</v>
       </c>
@@ -4417,7 +4405,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" ht="18.75">
       <c r="B39" s="112">
         <v>1</v>
       </c>
@@ -4438,7 +4426,7 @@
         <v>1.0157899555103182E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" ht="18.75">
       <c r="B40" s="112">
         <v>2</v>
       </c>
@@ -4459,7 +4447,7 @@
         <v>2.006498677551246E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" ht="18.75">
       <c r="B41" s="112">
         <v>3</v>
       </c>
@@ -4480,7 +4468,7 @@
         <v>2.9725906334092535E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="18.75">
       <c r="B42" s="112">
         <v>4</v>
       </c>
@@ -4501,7 +4489,7 @@
         <v>3.91452264481877E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" ht="18.75">
       <c r="B43" s="112">
         <v>5</v>
       </c>
@@ -4522,7 +4510,7 @@
         <v>4.8327440059490995E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" ht="18.75">
       <c r="B44" s="112">
         <v>6</v>
       </c>
@@ -4543,7 +4531,7 @@
         <v>5.7276965996433768E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" ht="18.75">
       <c r="B45" s="112">
         <v>7</v>
       </c>
@@ -4564,7 +4552,7 @@
         <v>6.5998150119347551E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" ht="18.75">
       <c r="B46" s="112">
         <v>8</v>
       </c>
@@ -4585,7 +4573,7 @@
         <v>7.4495266448646263E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" ht="18.75">
       <c r="B47" s="112">
         <v>9</v>
       </c>
@@ -4606,7 +4594,7 @@
         <v>8.2772518276273632E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" ht="18.75">
       <c r="B48" s="112">
         <v>10</v>
       </c>
@@ -4627,7 +4615,7 @@
         <v>9.0834039260656918E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" ht="18.75">
       <c r="B49" s="112">
         <v>11</v>
       </c>
@@ -4648,7 +4636,7 @@
         <v>9.8683894505405073E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" ht="18.75">
       <c r="B50" s="115">
         <v>12</v>
       </c>
@@ -4669,7 +4657,7 @@
         <v>10.738934243820511</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="17.25" thickBot="1">
+    <row r="51" spans="2:6" ht="19.5" thickBot="1">
       <c r="B51" s="57" t="s">
         <v>51</v>
       </c>
@@ -4684,7 +4672,7 @@
         <v>11.35641653759966</v>
       </c>
     </row>
-    <row r="52" spans="2:6" ht="17.25" thickTop="1">
+    <row r="52" spans="2:6" ht="19.5" thickTop="1">
       <c r="E52" t="s">
         <v>113</v>
       </c>
@@ -4701,7 +4689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
@@ -4850,11 +4838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B8513B-8140-475B-8B09-02014327393B}">
+  <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4898,13 +4886,13 @@
         <v>124</v>
       </c>
       <c r="L2" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="17.25">
@@ -4912,21 +4900,21 @@
         <v>123</v>
       </c>
       <c r="C3" s="28">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="29">
         <v>0.09</v>
       </c>
       <c r="E3" s="29">
-        <v>0.2112</v>
+        <v>0.2137</v>
       </c>
       <c r="F3" s="30">
         <f>D3*C3</f>
-        <v>2.7E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G3" s="30">
         <f>+E3*C3</f>
-        <v>6.336E-2</v>
+        <v>4.274E-2</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="27" t="s">
@@ -4948,25 +4936,25 @@
         <v>0.2</v>
       </c>
       <c r="D4" s="29">
-        <v>8.5000000000000006E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E4" s="29">
-        <v>0.2147</v>
+        <v>0.21790000000000001</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:F7" si="0">D4*C4</f>
-        <v>1.7000000000000001E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="G4" s="30">
         <f t="shared" ref="G4:G7" si="1">+E4*C4</f>
-        <v>4.2940000000000006E-2</v>
+        <v>4.3580000000000008E-2</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="27" t="s">
         <v>124</v>
       </c>
       <c r="J4" s="132">
-        <v>0.2974</v>
+        <v>0.3</v>
       </c>
       <c r="K4" s="132">
         <v>1</v>
@@ -4977,34 +4965,34 @@
     </row>
     <row r="5" spans="2:14" ht="17.25">
       <c r="B5" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="28">
         <v>0.2</v>
       </c>
       <c r="D5" s="29">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="E5" s="29">
-        <v>0.1867</v>
+        <v>0.2341</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G5" s="30">
         <f t="shared" si="1"/>
-        <v>3.7340000000000005E-2</v>
+        <v>4.6820000000000001E-2</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J5" s="132">
-        <v>5.7854999999999997E-2</v>
+        <v>0.41697899999999999</v>
       </c>
       <c r="K5" s="132">
-        <v>6.2604999999999994E-2</v>
+        <v>0.64093800000000001</v>
       </c>
       <c r="L5" s="132">
         <v>1</v>
@@ -5014,37 +5002,37 @@
     </row>
     <row r="6" spans="2:14" ht="17.45" customHeight="1">
       <c r="B6" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C6" s="28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6" s="29">
-        <v>0.25430000000000003</v>
+        <v>0.2581</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" si="0"/>
-        <v>7.000000000000001E-3</v>
+        <v>1.4000000000000002E-2</v>
       </c>
       <c r="G6" s="30">
         <f t="shared" si="1"/>
-        <v>2.5430000000000005E-2</v>
+        <v>5.1619999999999999E-2</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J6" s="132">
-        <v>0.66018900000000003</v>
+        <v>0.66349999999999998</v>
       </c>
       <c r="K6" s="132">
-        <v>0.26379900000000001</v>
+        <v>0.26344400000000001</v>
       </c>
       <c r="L6" s="132">
-        <v>8.2939999999999993E-3</v>
+        <v>0.42276399999999997</v>
       </c>
       <c r="M6" s="132">
         <v>1</v>
@@ -5053,7 +5041,7 @@
     </row>
     <row r="7" spans="2:14" ht="17.45" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="28">
         <v>0.2</v>
@@ -5062,7 +5050,7 @@
         <v>0.11</v>
       </c>
       <c r="E7" s="29">
-        <v>0.22600000000000001</v>
+        <v>0.22939999999999999</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" si="0"/>
@@ -5070,23 +5058,23 @@
       </c>
       <c r="G7" s="30">
         <f t="shared" si="1"/>
-        <v>4.5200000000000004E-2</v>
+        <v>4.5880000000000004E-2</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J7" s="132">
-        <v>0.49678600000000001</v>
+        <v>0.49917</v>
       </c>
       <c r="K7" s="132">
-        <v>0.35177700000000001</v>
+        <v>0.35153800000000002</v>
       </c>
       <c r="L7" s="132">
-        <v>4.6087000000000003E-2</v>
+        <v>0.45461699999999999</v>
       </c>
       <c r="M7" s="132">
-        <v>0.432338</v>
+        <v>0.433811</v>
       </c>
       <c r="N7" s="132">
         <v>1</v>
@@ -5104,11 +5092,11 @@
       <c r="E8" s="32"/>
       <c r="F8" s="39">
         <f>SUM(F3:F7)</f>
-        <v>8.900000000000001E-2</v>
+        <v>8.8600000000000012E-2</v>
       </c>
       <c r="G8" s="39">
         <f>SQRT(G3^2+G4^2+G5^2+G6^2+G7^2+2*G3*G4*J4+2*G3*G5*J5+2*G3*G6*J6+2*G4*G5*K5+2*G4*G6*K6+2*G5*G6*L6+2*G7*G3*J7+2*G7*G4*K7+2*G7*G5*L7+2*G7*G6*M7)</f>
-        <v>0.14182689611006652</v>
+        <v>0.1720971291147996</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -5133,21 +5121,6 @@
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
     </row>
-    <row r="10" spans="2:14">
-      <c r="G10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10">
-        <f>(0-F8)/G8</f>
-        <v>-0.62752554304601338</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="H11" s="146">
-        <f>_xlfn.NORM.S.DIST(H10,TRUE)</f>
-        <v>0.26515739903612268</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5157,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9D6FD2-E49E-400C-9B67-5D1CDDAE9850}">
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5293,11 +5266,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5C01A9-3285-441C-A791-F929A142CEF8}">
   <dimension ref="B2:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5355,21 +5328,21 @@
         <v>1</v>
       </c>
       <c r="C3" s="28">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="29">
-        <v>8.8999999999999996E-2</v>
+        <v>0.09</v>
       </c>
       <c r="E3" s="29">
-        <v>0.14180000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="F3" s="30">
         <f>D3*C3</f>
-        <v>4.4499999999999998E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G3" s="30">
         <f>+E3*C3</f>
-        <v>7.0900000000000005E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="26" t="s">
@@ -5388,21 +5361,21 @@
         <v>2</v>
       </c>
       <c r="C4" s="28">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D4" s="29">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E4" s="29">
-        <v>5.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ref="F4:F7" si="0">D4*C4</f>
-        <v>2.5000000000000005E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="G4" s="30">
         <f t="shared" ref="G4:G7" si="1">+E4*C4</f>
-        <v>5.0000000000000001E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H4" s="25"/>
       <c r="I4" s="26" t="s">
@@ -5423,21 +5396,21 @@
         <v>12</v>
       </c>
       <c r="C5" s="28">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="29">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="29">
         <v>0.04</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" si="0"/>
-        <v>6.0000000000000001E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="G5" s="30">
         <f t="shared" si="1"/>
-        <v>4.0000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H5" s="25"/>
       <c r="I5" s="26" t="s">
@@ -5463,14 +5436,14 @@
         <v>0.2</v>
       </c>
       <c r="D6" s="29">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="E6" s="29">
         <v>0.03</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" si="0"/>
-        <v>1.0000000000000002E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="G6" s="30">
         <f t="shared" si="1"/>
@@ -5502,14 +5475,14 @@
         <v>0.1</v>
       </c>
       <c r="D7" s="29">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="E7" s="29">
         <v>0</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" si="0"/>
-        <v>1.5E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G7" s="30">
         <f t="shared" si="1"/>
@@ -5547,11 +5520,11 @@
       <c r="E8" s="32"/>
       <c r="F8" s="39">
         <f>SUM(F3:F7)</f>
-        <v>6.4500000000000002E-2</v>
+        <v>4.4500000000000005E-2</v>
       </c>
       <c r="G8" s="39">
         <f>SQRT(G3^2+G4^2+G5^2+G6^2+G7^2+2*G3*G4*J4+2*G3*G5*J5+2*G3*G6*J6+2*G4*G5*K5+2*G4*G6*K6+2*G5*G6*L6+2*G7*G3*J7+2*G7*G4*K7+2*G7*G5*L7+2*G7*G6*M7)</f>
-        <v>7.0228345915306883E-2</v>
+        <v>3.6383743622667525E-2</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -5590,7 +5563,7 @@
       </c>
       <c r="G11" s="38">
         <f>(G10-F8)/G8</f>
-        <v>-0.9184325667841432</v>
+        <v>-1.2230737018572204</v>
       </c>
     </row>
     <row r="12" spans="2:14">
@@ -5599,7 +5572,7 @@
       </c>
       <c r="G12" s="14">
         <f>_xlfn.NORM.S.DIST(G11,TRUE)</f>
-        <v>0.17919622370851007</v>
+        <v>0.11065093019047327</v>
       </c>
     </row>
   </sheetData>
@@ -5611,7 +5584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137A9010-6EE3-430E-91DB-2BED27EF881D}">
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
@@ -5732,7 +5705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F4A0D2-DD99-4351-BEE5-877897F6FC54}">
   <dimension ref="B2:K21"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
@@ -5753,7 +5726,7 @@
     <col min="11" max="11" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="21">
+    <row r="2" spans="2:11" ht="28.5">
       <c r="B2" s="67" t="s">
         <v>71</v>
       </c>
@@ -5799,7 +5772,7 @@
       <c r="J5" s="86"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="2:11" ht="20.25">
+    <row r="6" spans="2:11" ht="21.75">
       <c r="B6" s="46">
         <v>1</v>
       </c>
@@ -5823,7 +5796,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="20.25">
+    <row r="7" spans="2:11" ht="21.75">
       <c r="B7" s="46">
         <v>2</v>
       </c>
@@ -5847,7 +5820,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="17.25" thickBot="1">
+    <row r="8" spans="2:11" ht="22.5" thickBot="1">
       <c r="B8" s="48">
         <v>3</v>
       </c>
@@ -5858,7 +5831,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="22.5" thickTop="1">
+    <row r="9" spans="2:11" ht="24.75" thickTop="1">
       <c r="J9" s="73" t="s">
         <v>76</v>
       </c>
@@ -5867,7 +5840,7 @@
         <v>0.27649999999999997</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="21.75">
+    <row r="10" spans="2:11" ht="24">
       <c r="B10" s="73" t="s">
         <v>76</v>
       </c>
@@ -5883,7 +5856,7 @@
         <v>0.12982299498638272</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="19.5">
+    <row r="11" spans="2:11" ht="24">
       <c r="B11" s="73" t="s">
         <v>77</v>
       </c>
@@ -5892,13 +5865,13 @@
         <v>5.9104500597819021E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="21">
+    <row r="14" spans="2:11" ht="28.5">
       <c r="B14" s="67" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1"/>
-    <row r="16" spans="2:11" ht="20.25" thickTop="1">
+    <row r="16" spans="2:11" ht="22.5" thickTop="1">
       <c r="B16" s="44" t="s">
         <v>72</v>
       </c>
@@ -5943,7 +5916,7 @@
         <v>-10000000</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="19.5">
+    <row r="18" spans="2:8" ht="21.75">
       <c r="B18" s="46">
         <v>1</v>
       </c>
@@ -5967,7 +5940,7 @@
         <v>-11000000</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="19.5">
+    <row r="19" spans="2:8" ht="21.75">
       <c r="B19" s="46">
         <v>2</v>
       </c>
@@ -6026,10 +5999,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA65D0D6-CF97-4CD2-8BF6-DA0D7ED093AE}">
   <dimension ref="B2:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -6041,7 +6014,7 @@
     <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="22.5">
+    <row r="2" spans="2:6" ht="30.75">
       <c r="B2" s="91" t="s">
         <v>87</v>
       </c>
@@ -6049,7 +6022,7 @@
     <row r="3" spans="2:6" ht="21" customHeight="1" thickBot="1">
       <c r="B3" s="91"/>
     </row>
-    <row r="4" spans="2:6" ht="17.25" thickTop="1">
+    <row r="4" spans="2:6" ht="22.5" thickTop="1">
       <c r="B4" s="141" t="s">
         <v>15</v>
       </c>
@@ -6077,7 +6050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" ht="21.75">
       <c r="B6" s="46" t="s">
         <v>1</v>
       </c>
@@ -6094,7 +6067,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" ht="21.75">
       <c r="B7" s="46" t="s">
         <v>13</v>
       </c>
@@ -6128,7 +6101,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="17.25" thickBot="1">
+    <row r="9" spans="2:6" ht="22.5" thickBot="1">
       <c r="B9" s="96" t="s">
         <v>51</v>
       </c>
@@ -6155,7 +6128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="20.25">
+    <row r="12" spans="2:6" ht="21">
       <c r="B12" s="121" t="s">
         <v>91</v>
       </c>
@@ -6164,7 +6137,7 @@
         <v>3.3450000000000008E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="20.25">
+    <row r="13" spans="2:6" ht="21">
       <c r="B13" s="121" t="s">
         <v>92</v>
       </c>
@@ -6173,7 +6146,7 @@
         <v>7.6999999999999963E-4</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="20.25">
+    <row r="14" spans="2:6" ht="21">
       <c r="B14" s="121" t="s">
         <v>93</v>
       </c>
@@ -6182,7 +6155,7 @@
         <v>1.0349999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="20.25">
+    <row r="15" spans="2:6" ht="21">
       <c r="B15" s="121" t="s">
         <v>94</v>
       </c>
@@ -6199,13 +6172,13 @@
       <c r="B17" s="25"/>
       <c r="E17" s="100"/>
     </row>
-    <row r="18" spans="2:5" ht="20.25">
+    <row r="18" spans="2:5" ht="21">
       <c r="B18" s="122" t="s">
         <v>95</v>
       </c>
       <c r="E18" s="100"/>
     </row>
-    <row r="19" spans="2:5" ht="20.25">
+    <row r="19" spans="2:5" ht="21">
       <c r="B19" s="121" t="s">
         <v>96</v>
       </c>
@@ -6214,7 +6187,7 @@
         <v>1.3500000000000012E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="20.25">
+    <row r="20" spans="2:5" ht="21">
       <c r="B20" s="121" t="s">
         <v>97</v>
       </c>
@@ -6223,7 +6196,7 @@
         <v>-4.9999999999999871E-4</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="20.25">
+    <row r="21" spans="2:5" ht="21">
       <c r="B21" s="121" t="s">
         <v>98</v>
       </c>
@@ -6232,7 +6205,7 @@
         <v>9.9999999999999923E-5</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="20.25">
+    <row r="22" spans="2:5" ht="21">
       <c r="B22" s="121" t="s">
         <v>94</v>
       </c>
@@ -6253,7 +6226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C506FF18-E08B-4C83-A90D-CA184C3EE2CD}">
   <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6267,7 +6240,7 @@
     <col min="6" max="6" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="21">
+    <row r="2" spans="1:6" ht="28.5">
       <c r="B2" s="67" t="s">
         <v>99</v>
       </c>
@@ -6351,7 +6324,7 @@
       <c r="F8" s="105"/>
     </row>
     <row r="9" spans="1:6" ht="17.25" thickTop="1"/>
-    <row r="10" spans="1:6" ht="18.75">
+    <row r="10" spans="1:6" ht="24">
       <c r="B10" s="133" t="s">
         <v>107</v>
       </c>
@@ -6423,6 +6396,5 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>